--- a/Bibsam_tidskriftslistor/scifree_data_acs.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_acs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="258">
   <si>
     <t>Open</t>
   </si>
@@ -736,6 +736,63 @@
   </si>
   <si>
     <t>The Journal of Physical Chemistry C</t>
+  </si>
+  <si>
+    <t>ACS Bio &amp; Med Chem Au</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/abmcb8</t>
+  </si>
+  <si>
+    <t>ACS Environmental Au</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/aeacc4</t>
+  </si>
+  <si>
+    <t>ACS Engineering Au</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/aeacb3</t>
+  </si>
+  <si>
+    <t>ACS Materials Au</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/amacgu</t>
+  </si>
+  <si>
+    <t>ACS Polymers Au</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/apaccd</t>
+  </si>
+  <si>
+    <t>ACS Physical Chemistry Au</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/apcach</t>
+  </si>
+  <si>
+    <t>2694-247X</t>
+  </si>
+  <si>
+    <t>ACS Organic &amp; Inorganic Au</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/aoiab5</t>
+  </si>
+  <si>
+    <t>ACS Nanoscience Au</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/anaccx</t>
+  </si>
+  <si>
+    <t>ACS Measurement Science Au</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/amachv</t>
   </si>
 </sst>
 </file>
@@ -1062,22 +1119,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1100,7 +1157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -1123,7 +1180,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -1143,7 +1200,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -1163,7 +1220,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>172</v>
       </c>
@@ -1183,7 +1240,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>172</v>
       </c>
@@ -1206,7 +1263,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -1226,7 +1283,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -1246,7 +1303,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -1266,7 +1323,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>172</v>
       </c>
@@ -1286,7 +1343,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -1306,7 +1363,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -1329,7 +1386,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>172</v>
       </c>
@@ -1352,7 +1409,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>172</v>
       </c>
@@ -1372,7 +1429,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>172</v>
       </c>
@@ -1395,7 +1452,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>172</v>
       </c>
@@ -1415,7 +1472,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -1435,7 +1492,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>172</v>
       </c>
@@ -1455,7 +1512,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>172</v>
       </c>
@@ -1475,7 +1532,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>172</v>
       </c>
@@ -1495,7 +1552,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>172</v>
       </c>
@@ -1515,7 +1572,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>172</v>
       </c>
@@ -1538,7 +1595,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>172</v>
       </c>
@@ -1558,7 +1615,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>172</v>
       </c>
@@ -1578,7 +1635,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>172</v>
       </c>
@@ -1598,7 +1655,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>172</v>
       </c>
@@ -1618,7 +1675,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -1638,7 +1695,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>172</v>
       </c>
@@ -1658,7 +1715,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>172</v>
       </c>
@@ -1681,7 +1738,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>172</v>
       </c>
@@ -1704,7 +1761,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>172</v>
       </c>
@@ -1727,7 +1784,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>172</v>
       </c>
@@ -1750,7 +1807,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>172</v>
       </c>
@@ -1770,7 +1827,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>172</v>
       </c>
@@ -1793,7 +1850,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>172</v>
       </c>
@@ -1816,7 +1873,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>172</v>
       </c>
@@ -1839,7 +1896,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>172</v>
       </c>
@@ -1862,7 +1919,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>172</v>
       </c>
@@ -1885,7 +1942,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>172</v>
       </c>
@@ -1908,7 +1965,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>172</v>
       </c>
@@ -1928,7 +1985,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>172</v>
       </c>
@@ -1951,7 +2008,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>172</v>
       </c>
@@ -1974,7 +2031,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>172</v>
       </c>
@@ -1997,7 +2054,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>172</v>
       </c>
@@ -2020,7 +2077,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>172</v>
       </c>
@@ -2043,7 +2100,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>172</v>
       </c>
@@ -2066,7 +2123,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>172</v>
       </c>
@@ -2089,7 +2146,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>172</v>
       </c>
@@ -2112,7 +2169,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>172</v>
       </c>
@@ -2135,7 +2192,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>172</v>
       </c>
@@ -2158,7 +2215,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>172</v>
       </c>
@@ -2181,7 +2238,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>172</v>
       </c>
@@ -2204,7 +2261,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>172</v>
       </c>
@@ -2227,7 +2284,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>172</v>
       </c>
@@ -2250,7 +2307,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>172</v>
       </c>
@@ -2273,7 +2330,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>172</v>
       </c>
@@ -2296,7 +2353,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>172</v>
       </c>
@@ -2319,7 +2376,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>172</v>
       </c>
@@ -2342,7 +2399,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>172</v>
       </c>
@@ -2365,7 +2422,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>172</v>
       </c>
@@ -2388,7 +2445,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>172</v>
       </c>
@@ -2411,7 +2468,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>172</v>
       </c>
@@ -2434,7 +2491,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>172</v>
       </c>
@@ -2457,7 +2514,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>172</v>
       </c>
@@ -2474,6 +2531,162 @@
         <v>11</v>
       </c>
       <c r="G64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" t="s">
+        <v>239</v>
+      </c>
+      <c r="E65" t="s">
+        <v>240</v>
+      </c>
+      <c r="F65" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>172</v>
+      </c>
+      <c r="D66" t="s">
+        <v>241</v>
+      </c>
+      <c r="E66" t="s">
+        <v>242</v>
+      </c>
+      <c r="F66" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67" t="s">
+        <v>243</v>
+      </c>
+      <c r="E67" t="s">
+        <v>244</v>
+      </c>
+      <c r="F67" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>172</v>
+      </c>
+      <c r="D68" t="s">
+        <v>245</v>
+      </c>
+      <c r="E68" t="s">
+        <v>246</v>
+      </c>
+      <c r="F68" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" t="s">
+        <v>247</v>
+      </c>
+      <c r="E69" t="s">
+        <v>248</v>
+      </c>
+      <c r="F69" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" t="s">
+        <v>249</v>
+      </c>
+      <c r="E70" t="s">
+        <v>250</v>
+      </c>
+      <c r="F70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" t="s">
+        <v>251</v>
+      </c>
+      <c r="D71" t="s">
+        <v>252</v>
+      </c>
+      <c r="E71" t="s">
+        <v>253</v>
+      </c>
+      <c r="F71" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" t="s">
+        <v>254</v>
+      </c>
+      <c r="E72" t="s">
+        <v>255</v>
+      </c>
+      <c r="F72" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" t="s">
+        <v>256</v>
+      </c>
+      <c r="E73" t="s">
+        <v>257</v>
+      </c>
+      <c r="F73" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
         <v>171</v>
       </c>
     </row>

--- a/Bibsam_tidskriftslistor/scifree_data_acs.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_acs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="278">
   <si>
     <t>Open</t>
   </si>
@@ -108,12 +108,6 @@
     <t>ACS Catalysis</t>
   </si>
   <si>
-    <t>2374-7951</t>
-  </si>
-  <si>
-    <t>ACS Central Science</t>
-  </si>
-  <si>
     <t>1554-8937</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>1871-5532</t>
   </si>
   <si>
-    <t>ACS Chemical Health &amp; Safety (New in 2020)1</t>
-  </si>
-  <si>
     <t>1948-7193</t>
   </si>
   <si>
@@ -174,9 +165,6 @@
     <t>2639-4979</t>
   </si>
   <si>
-    <t>ACS Materials Letters (New in 2020)1</t>
-  </si>
-  <si>
     <t>1948-5875</t>
   </si>
   <si>
@@ -264,12 +252,6 @@
     <t>Biomacromolecules</t>
   </si>
   <si>
-    <t>2474-7408</t>
-  </si>
-  <si>
-    <t>C&amp;EN Global Enterprise2</t>
-  </si>
-  <si>
     <t>1520-5010</t>
   </si>
   <si>
@@ -435,9 +417,6 @@
     <t>1044-0305</t>
   </si>
   <si>
-    <t>Journal of The American Society for Mass Spectrometry (New in 2020)1,4</t>
-  </si>
-  <si>
     <t>1520-5827</t>
   </si>
   <si>
@@ -567,9 +546,6 @@
     <t>https://pubs.acs.org/journal/accacs</t>
   </si>
   <si>
-    <t>https://pubs.acs.org/journal/acscii</t>
-  </si>
-  <si>
     <t>https://pubs.acs.org/journal/acbcct</t>
   </si>
   <si>
@@ -633,9 +609,6 @@
     <t>https://pubs.acs.org/journal/bomaf6</t>
   </si>
   <si>
-    <t>https://pubs.acs.org/journal/cgeabj</t>
-  </si>
-  <si>
     <t>https://pubs.acs.org/journal/crtoec</t>
   </si>
   <si>
@@ -793,6 +766,93 @@
   </si>
   <si>
     <t>https://pubs.acs.org/journal/amachv</t>
+  </si>
+  <si>
+    <t>ACS Agricultural Science &amp; Technology</t>
+  </si>
+  <si>
+    <t>ACS Chemical Health &amp; Safety</t>
+  </si>
+  <si>
+    <t>ACS ES&amp;T Engineering</t>
+  </si>
+  <si>
+    <t>ACS ES&amp;T Water</t>
+  </si>
+  <si>
+    <t>ACS Food Science &amp; Technology</t>
+  </si>
+  <si>
+    <t>ACS Materials Letters</t>
+  </si>
+  <si>
+    <t>Accounts of Materials Research</t>
+  </si>
+  <si>
+    <t>JACS Au</t>
+  </si>
+  <si>
+    <t>2692-1952</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/aastgj</t>
+  </si>
+  <si>
+    <t>2690-0645</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/aeecco</t>
+  </si>
+  <si>
+    <t>2690-0637</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/aewcaa</t>
+  </si>
+  <si>
+    <t>2692-1944</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/afsthl</t>
+  </si>
+  <si>
+    <t>2643-6728</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/amrcda</t>
+  </si>
+  <si>
+    <t>2691-3704</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/jaaucr</t>
+  </si>
+  <si>
+    <t>2694-2437</t>
+  </si>
+  <si>
+    <t>2694-2518</t>
+  </si>
+  <si>
+    <t>2694-2488</t>
+  </si>
+  <si>
+    <t>2694-2461</t>
+  </si>
+  <si>
+    <t>2694-2453</t>
+  </si>
+  <si>
+    <t>2694-2445</t>
+  </si>
+  <si>
+    <t>2694-2496</t>
+  </si>
+  <si>
+    <t>2694-250X</t>
+  </si>
+  <si>
+    <t>Journal of The American Society for Mass Spectrometry</t>
   </si>
 </sst>
 </file>
@@ -843,7 +903,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -854,6 +942,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G77" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G77"/>
+  <sortState ref="A2:G77">
+    <sortCondition ref="D1:D77"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Imprint"/>
+    <tableColumn id="2" name="ISSN Electronic"/>
+    <tableColumn id="3" name="ISSN Print"/>
+    <tableColumn id="4" name="Journal Name"/>
+    <tableColumn id="5" name="JournalURL"/>
+    <tableColumn id="6" name="Publishing model"/>
+    <tableColumn id="7" name="CC License options"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1119,19 +1226,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1144,7 +1251,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1159,7 +1266,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1171,1527 +1278,1637 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
         <v>172</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>181</v>
-      </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>269</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>271</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>234</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>232</v>
       </c>
       <c r="E21" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
+        <v>259</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="E22" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>261</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>252</v>
       </c>
       <c r="E23" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="F23" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>253</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>272</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>254</v>
       </c>
       <c r="E28" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" t="s">
-        <v>70</v>
+        <v>276</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" t="s">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
+        <v>242</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>243</v>
       </c>
       <c r="E34" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" t="s">
-        <v>93</v>
+        <v>274</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
       <c r="E37" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" t="s">
-        <v>96</v>
+        <v>273</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>238</v>
       </c>
       <c r="E38" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="E47" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F48" t="s">
         <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="D51" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="E51" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="E52" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="E53" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" t="s">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="E55" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D56" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="E56" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="E57" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="D58" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="E59" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="D60" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="E60" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>120</v>
       </c>
       <c r="E61" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="F61" t="s">
         <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B62" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="D62" t="s">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="E62" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="C63" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="D63" t="s">
-        <v>238</v>
+        <v>126</v>
       </c>
       <c r="E63" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="F63" t="s">
         <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>127</v>
+      </c>
+      <c r="C64" t="s">
+        <v>128</v>
       </c>
       <c r="D64" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="E64" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="F64" t="s">
         <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" t="s">
+        <v>131</v>
       </c>
       <c r="D65" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="E65" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="F65" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="B66" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" t="s">
+        <v>133</v>
       </c>
       <c r="D66" t="s">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="E66" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="F66" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="s">
+        <v>136</v>
       </c>
       <c r="D67" t="s">
-        <v>243</v>
+        <v>137</v>
       </c>
       <c r="E67" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="F67" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s">
+        <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>245</v>
+        <v>140</v>
       </c>
       <c r="E68" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="F68" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" t="s">
+        <v>142</v>
       </c>
       <c r="D69" t="s">
-        <v>247</v>
+        <v>143</v>
       </c>
       <c r="E69" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="F69" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" t="s">
+        <v>145</v>
       </c>
       <c r="D70" t="s">
-        <v>249</v>
+        <v>146</v>
       </c>
       <c r="E70" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="F70" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B71" t="s">
-        <v>251</v>
+        <v>147</v>
+      </c>
+      <c r="C71" t="s">
+        <v>148</v>
       </c>
       <c r="D71" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="E71" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="F71" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" t="s">
+        <v>151</v>
       </c>
       <c r="D72" t="s">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="E72" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="F72" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="B73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" t="s">
+        <v>154</v>
       </c>
       <c r="D73" t="s">
-        <v>256</v>
+        <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="F73" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>171</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" t="s">
+        <v>227</v>
+      </c>
+      <c r="E74" t="s">
+        <v>223</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" t="s">
+        <v>159</v>
+      </c>
+      <c r="D75" t="s">
+        <v>228</v>
+      </c>
+      <c r="E75" t="s">
+        <v>224</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" t="s">
+        <v>229</v>
+      </c>
+      <c r="E76" t="s">
+        <v>225</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77" t="s">
+        <v>226</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/scifree_data_acs.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_acs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="281">
   <si>
     <t>Open</t>
   </si>
@@ -853,6 +853,15 @@
   </si>
   <si>
     <t>Journal of The American Society for Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>2374-7951</t>
+  </si>
+  <si>
+    <t>ACS Central Science</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/acscii</t>
   </si>
 </sst>
 </file>
@@ -945,10 +954,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G77" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G77"/>
-  <sortState ref="A2:G77">
-    <sortCondition ref="D1:D77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G78" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G78"/>
+  <sortState ref="A2:G78">
+    <sortCondition ref="D1:D78"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -1226,7 +1235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1515,19 +1524,16 @@
         <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
+        <v>278</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>279</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>164</v>
@@ -1538,16 +1544,16 @@
         <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1561,13 +1567,16 @@
         <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1581,16 +1590,13 @@
         <v>165</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1604,13 +1610,16 @@
         <v>165</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1624,13 +1633,13 @@
         <v>165</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1644,16 +1653,16 @@
         <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>271</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="F20" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
         <v>164</v>
@@ -1664,13 +1673,13 @@
         <v>165</v>
       </c>
       <c r="B21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E21" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
@@ -1684,16 +1693,16 @@
         <v>165</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D22" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="E22" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G22" t="s">
         <v>164</v>
@@ -1704,13 +1713,13 @@
         <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1724,13 +1733,13 @@
         <v>165</v>
       </c>
       <c r="B24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -1744,13 +1753,13 @@
         <v>165</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>263</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="E25" t="s">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -1764,13 +1773,13 @@
         <v>165</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1784,16 +1793,16 @@
         <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="F27" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
         <v>164</v>
@@ -1804,16 +1813,16 @@
         <v>165</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>272</v>
       </c>
       <c r="D28" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="E28" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G28" t="s">
         <v>164</v>
@@ -1824,16 +1833,16 @@
         <v>165</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E29" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="F29" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
         <v>164</v>
@@ -1844,16 +1853,16 @@
         <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>276</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>247</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G30" t="s">
         <v>164</v>
@@ -1864,16 +1873,13 @@
         <v>165</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -1887,16 +1893,19 @@
         <v>165</v>
       </c>
       <c r="B32" t="s">
-        <v>275</v>
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="F32" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
         <v>164</v>
@@ -1907,13 +1916,13 @@
         <v>165</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>275</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="F33" t="s">
         <v>0</v>
@@ -1927,13 +1936,13 @@
         <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -1947,16 +1956,16 @@
         <v>165</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>242</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G35" t="s">
         <v>164</v>
@@ -1967,13 +1976,13 @@
         <v>165</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -1987,16 +1996,16 @@
         <v>165</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>240</v>
+        <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="F37" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
         <v>164</v>
@@ -2007,13 +2016,13 @@
         <v>165</v>
       </c>
       <c r="B38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D38" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E38" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
@@ -2027,16 +2036,16 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>273</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>238</v>
       </c>
       <c r="E39" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G39" t="s">
         <v>164</v>
@@ -2047,13 +2056,13 @@
         <v>165</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
@@ -2067,13 +2076,13 @@
         <v>165</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
@@ -2087,16 +2096,13 @@
         <v>165</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
@@ -2110,16 +2116,16 @@
         <v>165</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
@@ -2133,16 +2139,16 @@
         <v>165</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -2156,16 +2162,16 @@
         <v>165</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
@@ -2179,16 +2185,16 @@
         <v>165</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
@@ -2202,16 +2208,16 @@
         <v>165</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -2225,16 +2231,16 @@
         <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F48" t="s">
         <v>11</v>
@@ -2248,16 +2254,16 @@
         <v>165</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
@@ -2271,16 +2277,16 @@
         <v>165</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
@@ -2294,16 +2300,16 @@
         <v>165</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
@@ -2317,13 +2323,16 @@
         <v>165</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>93</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
@@ -2337,16 +2346,13 @@
         <v>165</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -2360,16 +2366,16 @@
         <v>165</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
@@ -2383,16 +2389,19 @@
         <v>165</v>
       </c>
       <c r="B55" t="s">
-        <v>267</v>
+        <v>100</v>
+      </c>
+      <c r="C55" t="s">
+        <v>101</v>
       </c>
       <c r="D55" t="s">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="E55" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="F55" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G55" t="s">
         <v>164</v>
@@ -2403,19 +2412,16 @@
         <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" t="s">
-        <v>104</v>
+        <v>267</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>256</v>
       </c>
       <c r="E56" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G56" t="s">
         <v>164</v>
@@ -2426,16 +2432,16 @@
         <v>165</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
@@ -2449,16 +2455,16 @@
         <v>165</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
@@ -2472,16 +2478,16 @@
         <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
@@ -2495,16 +2501,16 @@
         <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
@@ -2518,16 +2524,16 @@
         <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F61" t="s">
         <v>11</v>
@@ -2541,16 +2547,16 @@
         <v>165</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
@@ -2564,16 +2570,16 @@
         <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F63" t="s">
         <v>11</v>
@@ -2587,16 +2593,16 @@
         <v>165</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F64" t="s">
         <v>11</v>
@@ -2610,16 +2616,16 @@
         <v>165</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D65" t="s">
-        <v>277</v>
+        <v>129</v>
       </c>
       <c r="E65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F65" t="s">
         <v>11</v>
@@ -2633,16 +2639,16 @@
         <v>165</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D66" t="s">
-        <v>134</v>
+        <v>277</v>
       </c>
       <c r="E66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F66" t="s">
         <v>11</v>
@@ -2656,16 +2662,16 @@
         <v>165</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D67" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F67" t="s">
         <v>11</v>
@@ -2679,16 +2685,16 @@
         <v>165</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F68" t="s">
         <v>11</v>
@@ -2702,16 +2708,16 @@
         <v>165</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D69" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F69" t="s">
         <v>11</v>
@@ -2725,16 +2731,16 @@
         <v>165</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D70" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F70" t="s">
         <v>11</v>
@@ -2748,16 +2754,16 @@
         <v>165</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D71" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F71" t="s">
         <v>11</v>
@@ -2771,16 +2777,16 @@
         <v>165</v>
       </c>
       <c r="B72" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D72" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E72" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F72" t="s">
         <v>11</v>
@@ -2794,16 +2800,16 @@
         <v>165</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F73" t="s">
         <v>11</v>
@@ -2817,16 +2823,16 @@
         <v>165</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D74" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="E74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
@@ -2840,16 +2846,16 @@
         <v>165</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D75" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F75" t="s">
         <v>11</v>
@@ -2863,16 +2869,16 @@
         <v>165</v>
       </c>
       <c r="B76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D76" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F76" t="s">
         <v>11</v>
@@ -2886,18 +2892,41 @@
         <v>165</v>
       </c>
       <c r="B77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" t="s">
+        <v>229</v>
+      </c>
+      <c r="E77" t="s">
+        <v>225</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" t="s">
         <v>162</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>163</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E78" t="s">
         <v>226</v>
       </c>
-      <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
         <v>164</v>
       </c>
     </row>

--- a/Bibsam_tidskriftslistor/scifree_data_acs.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_acs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="296">
   <si>
     <t>Open</t>
   </si>
@@ -862,6 +862,51 @@
   </si>
   <si>
     <t>https://pubs.acs.org/journal/acscii</t>
+  </si>
+  <si>
+    <t>2832-3637</t>
+  </si>
+  <si>
+    <t>2833-8278</t>
+  </si>
+  <si>
+    <t>2771-9316</t>
+  </si>
+  <si>
+    <t>pubs.acs.org/journal/pcrhej</t>
+  </si>
+  <si>
+    <t>2771-9545</t>
+  </si>
+  <si>
+    <t>2771-9855</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/acsengineeringau</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/cbihbp</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/ehnea2</t>
+  </si>
+  <si>
+    <t>ACS Applied Engineering Materials</t>
+  </si>
+  <si>
+    <t>ACS Applied Optical Materials</t>
+  </si>
+  <si>
+    <t>Chemical &amp; Biomedical Imaging</t>
+  </si>
+  <si>
+    <t>Environment &amp; Health</t>
+  </si>
+  <si>
+    <t>Precision Chemistry</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/aaemdr</t>
   </si>
 </sst>
 </file>
@@ -912,7 +957,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -930,16 +1035,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -954,10 +1049,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G78" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G78"/>
-  <sortState ref="A2:G78">
-    <sortCondition ref="D1:D78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G83" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G83"/>
+  <sortState ref="A2:G83">
+    <sortCondition ref="D1:D83"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -1235,7 +1330,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1401,16 +1496,13 @@
         <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>295</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -1424,13 +1516,16 @@
         <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1444,13 +1539,13 @@
         <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1464,16 +1559,16 @@
         <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="F11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
         <v>164</v>
@@ -1484,13 +1579,13 @@
         <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -1504,16 +1599,16 @@
         <v>165</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G13" t="s">
         <v>164</v>
@@ -1524,16 +1619,16 @@
         <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="F14" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
         <v>164</v>
@@ -1544,16 +1639,13 @@
         <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1567,19 +1659,16 @@
         <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
+        <v>278</v>
       </c>
       <c r="D16" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G16" t="s">
         <v>164</v>
@@ -1590,13 +1679,16 @@
         <v>165</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1610,16 +1702,16 @@
         <v>165</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="E18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1633,13 +1725,13 @@
         <v>165</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1653,13 +1745,16 @@
         <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1673,16 +1768,16 @@
         <v>165</v>
       </c>
       <c r="B21" t="s">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="F21" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
         <v>164</v>
@@ -1693,16 +1788,16 @@
         <v>165</v>
       </c>
       <c r="B22" t="s">
-        <v>270</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="F22" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
         <v>164</v>
@@ -1713,16 +1808,16 @@
         <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D23" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E23" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G23" t="s">
         <v>164</v>
@@ -1733,16 +1828,16 @@
         <v>165</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="D24" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="E24" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G24" t="s">
         <v>164</v>
@@ -1753,13 +1848,13 @@
         <v>165</v>
       </c>
       <c r="B25" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E25" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -1773,13 +1868,13 @@
         <v>165</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="E26" t="s">
-        <v>181</v>
+        <v>262</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1793,13 +1888,13 @@
         <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="E27" t="s">
-        <v>182</v>
+        <v>264</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1813,16 +1908,16 @@
         <v>165</v>
       </c>
       <c r="B28" t="s">
-        <v>272</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="F28" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
         <v>164</v>
@@ -1833,13 +1928,13 @@
         <v>165</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>254</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -1853,13 +1948,13 @@
         <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D30" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E30" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
@@ -1873,13 +1968,13 @@
         <v>165</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="E31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -1893,19 +1988,16 @@
         <v>165</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
       <c r="E32" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G32" t="s">
         <v>164</v>
@@ -1916,16 +2008,16 @@
         <v>165</v>
       </c>
       <c r="B33" t="s">
-        <v>275</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>245</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="F33" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
         <v>164</v>
@@ -1936,16 +2028,19 @@
         <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F34" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
         <v>164</v>
@@ -1956,13 +2051,13 @@
         <v>165</v>
       </c>
       <c r="B35" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="D35" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E35" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
@@ -1976,16 +2071,16 @@
         <v>165</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
         <v>164</v>
@@ -1996,16 +2091,16 @@
         <v>165</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>242</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>243</v>
       </c>
       <c r="E37" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G37" t="s">
         <v>164</v>
@@ -2016,16 +2111,16 @@
         <v>165</v>
       </c>
       <c r="B38" t="s">
-        <v>274</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>240</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="F38" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
         <v>164</v>
@@ -2036,16 +2131,16 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>273</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>238</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="F39" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
         <v>164</v>
@@ -2056,16 +2151,16 @@
         <v>165</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>274</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="E40" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G40" t="s">
         <v>164</v>
@@ -2076,16 +2171,16 @@
         <v>165</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>238</v>
       </c>
       <c r="E41" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G41" t="s">
         <v>164</v>
@@ -2096,13 +2191,13 @@
         <v>165</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
@@ -2116,16 +2211,13 @@
         <v>165</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
@@ -2139,16 +2231,13 @@
         <v>165</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -2162,16 +2251,16 @@
         <v>165</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
@@ -2185,16 +2274,16 @@
         <v>165</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
@@ -2208,16 +2297,16 @@
         <v>165</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E47" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -2231,16 +2320,16 @@
         <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E48" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F48" t="s">
         <v>11</v>
@@ -2254,19 +2343,16 @@
         <v>165</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" t="s">
-        <v>84</v>
+        <v>281</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>292</v>
       </c>
       <c r="E49" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G49" t="s">
         <v>164</v>
@@ -2277,16 +2363,16 @@
         <v>165</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E50" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
@@ -2300,16 +2386,16 @@
         <v>165</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E51" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
@@ -2323,16 +2409,16 @@
         <v>165</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E52" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
@@ -2346,13 +2432,16 @@
         <v>165</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>87</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E53" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -2366,16 +2455,16 @@
         <v>165</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E54" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
@@ -2389,19 +2478,16 @@
         <v>165</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" t="s">
-        <v>101</v>
+        <v>282</v>
       </c>
       <c r="D55" t="s">
-        <v>102</v>
+        <v>293</v>
       </c>
       <c r="E55" t="s">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G55" t="s">
         <v>164</v>
@@ -2412,16 +2498,19 @@
         <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>267</v>
+        <v>92</v>
+      </c>
+      <c r="C56" t="s">
+        <v>93</v>
       </c>
       <c r="D56" t="s">
-        <v>256</v>
+        <v>94</v>
       </c>
       <c r="E56" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="F56" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G56" t="s">
         <v>164</v>
@@ -2432,16 +2521,13 @@
         <v>165</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E57" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
@@ -2455,16 +2541,16 @@
         <v>165</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D58" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
@@ -2478,16 +2564,16 @@
         <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E59" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
@@ -2501,19 +2587,16 @@
         <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" t="s">
-        <v>113</v>
+        <v>267</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>256</v>
       </c>
       <c r="E60" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G60" t="s">
         <v>164</v>
@@ -2524,16 +2607,16 @@
         <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E61" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F61" t="s">
         <v>11</v>
@@ -2547,16 +2630,16 @@
         <v>165</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E62" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
@@ -2570,16 +2653,16 @@
         <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E63" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F63" t="s">
         <v>11</v>
@@ -2593,16 +2676,16 @@
         <v>165</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F64" t="s">
         <v>11</v>
@@ -2616,16 +2699,16 @@
         <v>165</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D65" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E65" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F65" t="s">
         <v>11</v>
@@ -2639,16 +2722,16 @@
         <v>165</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D66" t="s">
-        <v>277</v>
+        <v>120</v>
       </c>
       <c r="E66" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F66" t="s">
         <v>11</v>
@@ -2662,16 +2745,16 @@
         <v>165</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D67" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E67" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F67" t="s">
         <v>11</v>
@@ -2685,16 +2768,16 @@
         <v>165</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D68" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F68" t="s">
         <v>11</v>
@@ -2708,16 +2791,16 @@
         <v>165</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D69" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E69" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F69" t="s">
         <v>11</v>
@@ -2731,16 +2814,16 @@
         <v>165</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D70" t="s">
-        <v>143</v>
+        <v>277</v>
       </c>
       <c r="E70" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F70" t="s">
         <v>11</v>
@@ -2754,16 +2837,16 @@
         <v>165</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D71" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E71" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F71" t="s">
         <v>11</v>
@@ -2777,16 +2860,16 @@
         <v>165</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C72" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D72" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E72" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F72" t="s">
         <v>11</v>
@@ -2800,16 +2883,16 @@
         <v>165</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D73" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E73" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F73" t="s">
         <v>11</v>
@@ -2823,16 +2906,16 @@
         <v>165</v>
       </c>
       <c r="B74" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C74" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D74" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E74" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
@@ -2846,16 +2929,16 @@
         <v>165</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D75" t="s">
-        <v>227</v>
+        <v>146</v>
       </c>
       <c r="E75" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F75" t="s">
         <v>11</v>
@@ -2869,16 +2952,16 @@
         <v>165</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D76" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="E76" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F76" t="s">
         <v>11</v>
@@ -2892,16 +2975,16 @@
         <v>165</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C77" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D77" t="s">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="E77" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F77" t="s">
         <v>11</v>
@@ -2915,24 +2998,142 @@
         <v>165</v>
       </c>
       <c r="B78" t="s">
+        <v>283</v>
+      </c>
+      <c r="D78" t="s">
+        <v>294</v>
+      </c>
+      <c r="E78" t="s">
+        <v>284</v>
+      </c>
+      <c r="F78" t="s">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" t="s">
+        <v>154</v>
+      </c>
+      <c r="D79" t="s">
+        <v>155</v>
+      </c>
+      <c r="E79" t="s">
+        <v>222</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" t="s">
+        <v>227</v>
+      </c>
+      <c r="E80" t="s">
+        <v>223</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" t="s">
+        <v>159</v>
+      </c>
+      <c r="D81" t="s">
+        <v>228</v>
+      </c>
+      <c r="E81" t="s">
+        <v>224</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" t="s">
+        <v>229</v>
+      </c>
+      <c r="E82" t="s">
+        <v>225</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" t="s">
         <v>162</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D83" t="s">
         <v>163</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E83" t="s">
         <v>226</v>
       </c>
-      <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E83">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/scifree_data_acs.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_acs.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_0A85699B7AAE7F5D9773BBB70C04666ADBADB3B2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B25CC732-28B2-47A2-8FEA-1D34D9621905}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="305">
   <si>
     <t>Open</t>
   </si>
@@ -907,22 +908,41 @@
   </si>
   <si>
     <t>https://pubs.acs.org/journal/aaemdr</t>
+  </si>
+  <si>
+    <t>2837-1402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACS ES&amp;T Air </t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/aeacd5</t>
+  </si>
+  <si>
+    <t>2837-1445</t>
+  </si>
+  <si>
+    <t>ACS Sustainable Resource Management</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/asrmcd</t>
+  </si>
+  <si>
+    <t>2836-967X</t>
+  </si>
+  <si>
+    <t>Chem &amp; Bio Engineering</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/cbehb5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -950,92 +970,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1049,19 +990,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G83" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G83"/>
-  <sortState ref="A2:G83">
-    <sortCondition ref="D1:D83"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D415E1FD-DE5F-4A60-8357-93D43294699D}" name="Table2" displayName="Table2" ref="A1:G86" totalsRowShown="0">
+  <autoFilter ref="A1:G86" xr:uid="{D415E1FD-DE5F-4A60-8357-93D43294699D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Imprint"/>
-    <tableColumn id="2" name="ISSN Electronic"/>
-    <tableColumn id="3" name="ISSN Print"/>
-    <tableColumn id="4" name="Journal Name"/>
-    <tableColumn id="5" name="JournalURL"/>
-    <tableColumn id="6" name="Publishing model"/>
-    <tableColumn id="7" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{2625C1ED-5FCB-47D3-BBA0-C4949873FDD0}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{60971B78-009D-40A6-BD14-C298D0CE04B2}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{E8C68180-AA9A-407C-95B0-C488C4787CF6}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{C754198A-35EC-4EFC-ADCA-BD12B371A720}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{CC1382FE-8CE3-4EA4-A37F-DE4802AB7911}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{EA265BD0-6B76-448A-9FDE-A297C88DE15E}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{5665C537-3BB8-418D-88DC-63DB7FC9CCF2}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1329,42 +1267,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB3CDD3-AE5C-4147-8063-039D56388C1D}">
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="68.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1848,13 +1788,13 @@
         <v>165</v>
       </c>
       <c r="B25" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="D25" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="E25" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -1868,13 +1808,13 @@
         <v>165</v>
       </c>
       <c r="B26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1888,13 +1828,13 @@
         <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1908,13 +1848,13 @@
         <v>165</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>263</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="E28" t="s">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -1928,13 +1868,13 @@
         <v>165</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -1948,16 +1888,16 @@
         <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="F30" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
         <v>164</v>
@@ -1968,16 +1908,16 @@
         <v>165</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>272</v>
       </c>
       <c r="D31" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G31" t="s">
         <v>164</v>
@@ -1988,16 +1928,16 @@
         <v>165</v>
       </c>
       <c r="B32" t="s">
-        <v>276</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E32" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="F32" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
         <v>164</v>
@@ -2008,16 +1948,16 @@
         <v>165</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>276</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>247</v>
       </c>
       <c r="E33" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G33" t="s">
         <v>164</v>
@@ -2028,16 +1968,13 @@
         <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -2051,16 +1988,19 @@
         <v>165</v>
       </c>
       <c r="B35" t="s">
-        <v>275</v>
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="F35" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
         <v>164</v>
@@ -2071,13 +2011,13 @@
         <v>165</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>275</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="F36" t="s">
         <v>0</v>
@@ -2091,13 +2031,13 @@
         <v>165</v>
       </c>
       <c r="B37" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -2111,16 +2051,16 @@
         <v>165</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>242</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>243</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G38" t="s">
         <v>164</v>
@@ -2131,13 +2071,13 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
@@ -2151,16 +2091,16 @@
         <v>165</v>
       </c>
       <c r="B40" t="s">
-        <v>274</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>240</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="F40" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
         <v>164</v>
@@ -2171,13 +2111,13 @@
         <v>165</v>
       </c>
       <c r="B41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D41" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E41" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
@@ -2191,16 +2131,16 @@
         <v>165</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>273</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G42" t="s">
         <v>164</v>
@@ -2211,13 +2151,13 @@
         <v>165</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
@@ -2231,13 +2171,13 @@
         <v>165</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -2251,16 +2191,13 @@
         <v>165</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" t="s">
-        <v>66</v>
+        <v>299</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="E45" t="s">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
@@ -2274,16 +2211,13 @@
         <v>165</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
@@ -2297,16 +2231,16 @@
         <v>165</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -2320,16 +2254,16 @@
         <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F48" t="s">
         <v>11</v>
@@ -2343,16 +2277,19 @@
         <v>165</v>
       </c>
       <c r="B49" t="s">
-        <v>281</v>
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>292</v>
+        <v>73</v>
       </c>
       <c r="E49" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="F49" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
         <v>164</v>
@@ -2363,16 +2300,16 @@
         <v>165</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
@@ -2386,19 +2323,16 @@
         <v>165</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" t="s">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="E51" t="s">
-        <v>197</v>
+        <v>304</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G51" t="s">
         <v>164</v>
@@ -2409,19 +2343,16 @@
         <v>165</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" t="s">
-        <v>84</v>
+        <v>281</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>292</v>
       </c>
       <c r="E52" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G52" t="s">
         <v>164</v>
@@ -2432,16 +2363,16 @@
         <v>165</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E53" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -2455,16 +2386,16 @@
         <v>165</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E54" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
@@ -2478,16 +2409,19 @@
         <v>165</v>
       </c>
       <c r="B55" t="s">
-        <v>282</v>
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>293</v>
+        <v>85</v>
       </c>
       <c r="E55" t="s">
-        <v>289</v>
+        <v>198</v>
       </c>
       <c r="F55" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G55" t="s">
         <v>164</v>
@@ -2498,16 +2432,16 @@
         <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E56" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
@@ -2521,13 +2455,16 @@
         <v>165</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="C57" t="s">
+        <v>90</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E57" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
@@ -2541,19 +2478,16 @@
         <v>165</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" t="s">
-        <v>98</v>
+        <v>282</v>
       </c>
       <c r="D58" t="s">
-        <v>99</v>
+        <v>293</v>
       </c>
       <c r="E58" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G58" t="s">
         <v>164</v>
@@ -2564,16 +2498,16 @@
         <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D59" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E59" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
@@ -2587,16 +2521,16 @@
         <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>267</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
-        <v>256</v>
+        <v>96</v>
       </c>
       <c r="E60" t="s">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="F60" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G60" t="s">
         <v>164</v>
@@ -2607,16 +2541,16 @@
         <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E61" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F61" t="s">
         <v>11</v>
@@ -2630,16 +2564,16 @@
         <v>165</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E62" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
@@ -2653,19 +2587,16 @@
         <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" t="s">
-        <v>110</v>
+        <v>267</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
       <c r="E63" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G63" t="s">
         <v>164</v>
@@ -2676,16 +2607,16 @@
         <v>165</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E64" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F64" t="s">
         <v>11</v>
@@ -2699,16 +2630,16 @@
         <v>165</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E65" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F65" t="s">
         <v>11</v>
@@ -2722,16 +2653,16 @@
         <v>165</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D66" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E66" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F66" t="s">
         <v>11</v>
@@ -2745,16 +2676,16 @@
         <v>165</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D67" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E67" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F67" t="s">
         <v>11</v>
@@ -2768,16 +2699,16 @@
         <v>165</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C68" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D68" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E68" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F68" t="s">
         <v>11</v>
@@ -2791,16 +2722,16 @@
         <v>165</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D69" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E69" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F69" t="s">
         <v>11</v>
@@ -2814,16 +2745,16 @@
         <v>165</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D70" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="E70" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F70" t="s">
         <v>11</v>
@@ -2837,16 +2768,16 @@
         <v>165</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E71" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F71" t="s">
         <v>11</v>
@@ -2860,16 +2791,16 @@
         <v>165</v>
       </c>
       <c r="B72" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D72" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E72" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F72" t="s">
         <v>11</v>
@@ -2883,16 +2814,16 @@
         <v>165</v>
       </c>
       <c r="B73" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D73" t="s">
-        <v>140</v>
+        <v>277</v>
       </c>
       <c r="E73" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F73" t="s">
         <v>11</v>
@@ -2906,16 +2837,16 @@
         <v>165</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D74" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E74" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
@@ -2929,16 +2860,16 @@
         <v>165</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C75" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D75" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E75" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F75" t="s">
         <v>11</v>
@@ -2952,16 +2883,16 @@
         <v>165</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C76" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E76" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F76" t="s">
         <v>11</v>
@@ -2975,16 +2906,16 @@
         <v>165</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D77" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E77" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F77" t="s">
         <v>11</v>
@@ -2998,16 +2929,19 @@
         <v>165</v>
       </c>
       <c r="B78" t="s">
-        <v>283</v>
+        <v>144</v>
+      </c>
+      <c r="C78" t="s">
+        <v>145</v>
       </c>
       <c r="D78" t="s">
-        <v>294</v>
+        <v>146</v>
       </c>
       <c r="E78" t="s">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="F78" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
         <v>164</v>
@@ -3018,16 +2952,16 @@
         <v>165</v>
       </c>
       <c r="B79" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C79" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D79" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E79" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F79" t="s">
         <v>11</v>
@@ -3041,16 +2975,16 @@
         <v>165</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D80" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="E80" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F80" t="s">
         <v>11</v>
@@ -3064,19 +2998,16 @@
         <v>165</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
-      </c>
-      <c r="C81" t="s">
-        <v>159</v>
+        <v>283</v>
       </c>
       <c r="D81" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="E81" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G81" t="s">
         <v>164</v>
@@ -3087,16 +3018,16 @@
         <v>165</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D82" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E82" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F82" t="s">
         <v>11</v>
@@ -3110,35 +3041,94 @@
         <v>165</v>
       </c>
       <c r="B83" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83" t="s">
+        <v>157</v>
+      </c>
+      <c r="D83" t="s">
+        <v>227</v>
+      </c>
+      <c r="E83" t="s">
+        <v>223</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" t="s">
+        <v>159</v>
+      </c>
+      <c r="D84" t="s">
+        <v>228</v>
+      </c>
+      <c r="E84" t="s">
+        <v>224</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" t="s">
+        <v>229</v>
+      </c>
+      <c r="E85" t="s">
+        <v>225</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" t="s">
         <v>162</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D86" t="s">
         <v>163</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E86" t="s">
         <v>226</v>
       </c>
-      <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E83">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/scifree_data_acs.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_acs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_0A85699B7AAE7F5D9773BBB70C04666ADBADB3B2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B25CC732-28B2-47A2-8FEA-1D34D9621905}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_0A85699B7AAE7F5D9773BBB70C04666ADBADB3B2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{255D78B7-8803-4691-B60D-A633E5D75F5C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="310">
   <si>
     <t>Open</t>
   </si>
@@ -130,15 +130,6 @@
     <t>ACS Chemical Neuroscience</t>
   </si>
   <si>
-    <t>2156-8944</t>
-  </si>
-  <si>
-    <t>2156-8952</t>
-  </si>
-  <si>
-    <t>ACS Combinatorial Science</t>
-  </si>
-  <si>
     <t>2472-3452</t>
   </si>
   <si>
@@ -556,9 +547,6 @@
     <t>https:// pubs.acs.org/journal/acncdm</t>
   </si>
   <si>
-    <t>https://pubs.acs.org/journal/acsccc</t>
-  </si>
-  <si>
     <t>https://pubs.acs.org/journal/aesccq</t>
   </si>
   <si>
@@ -874,9 +862,6 @@
     <t>2771-9316</t>
   </si>
   <si>
-    <t>pubs.acs.org/journal/pcrhej</t>
-  </si>
-  <si>
     <t>2771-9545</t>
   </si>
   <si>
@@ -935,6 +920,36 @@
   </si>
   <si>
     <t>https://pubs.acs.org/journal/cbehb5</t>
+  </si>
+  <si>
+    <t>2997-0571</t>
+  </si>
+  <si>
+    <t>ACS Electrochemistry</t>
+  </si>
+  <si>
+    <t>https: //pubs.acs.org/electrochem</t>
+  </si>
+  <si>
+    <t>2994-0974</t>
+  </si>
+  <si>
+    <t>Artificial Photosynthesis</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/apwdam</t>
+  </si>
+  <si>
+    <t>2997-3279</t>
+  </si>
+  <si>
+    <t>Polymer Science &amp; Technology</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/pstoco</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/journal/pcrhej</t>
   </si>
 </sst>
 </file>
@@ -990,16 +1005,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D415E1FD-DE5F-4A60-8357-93D43294699D}" name="Table2" displayName="Table2" ref="A1:G86" totalsRowShown="0">
-  <autoFilter ref="A1:G86" xr:uid="{D415E1FD-DE5F-4A60-8357-93D43294699D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C66BE705-1E5A-4303-AF83-D4C5F023D2E9}" name="Table1" displayName="Table1" ref="A1:G88" totalsRowShown="0">
+  <autoFilter ref="A1:G88" xr:uid="{C66BE705-1E5A-4303-AF83-D4C5F023D2E9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G88">
+    <sortCondition ref="D1:D88"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2625C1ED-5FCB-47D3-BBA0-C4949873FDD0}" name="Imprint"/>
-    <tableColumn id="2" xr3:uid="{60971B78-009D-40A6-BD14-C298D0CE04B2}" name="ISSN Electronic"/>
-    <tableColumn id="3" xr3:uid="{E8C68180-AA9A-407C-95B0-C488C4787CF6}" name="ISSN Print"/>
-    <tableColumn id="4" xr3:uid="{C754198A-35EC-4EFC-ADCA-BD12B371A720}" name="Journal Name"/>
-    <tableColumn id="5" xr3:uid="{CC1382FE-8CE3-4EA4-A37F-DE4802AB7911}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{EA265BD0-6B76-448A-9FDE-A297C88DE15E}" name="Publishing model"/>
-    <tableColumn id="7" xr3:uid="{5665C537-3BB8-418D-88DC-63DB7FC9CCF2}" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{F238F233-0310-40EB-BA15-E60E17D8E5A6}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{7129BCA7-E91A-4A15-B341-0FBB36F2191B}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{9AAD0F0B-84CA-4CC3-98CB-544B5E37668D}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{266D219D-02EB-434C-BFC8-4D68D7647EF5}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{AA394E15-5997-4731-9B07-B12B68F4943C}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{0FA508A0-F1D3-4C86-B004-B0A75BFD5E6E}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{CA3158FD-D75E-484F-A761-921186AF69AB}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1267,8 +1285,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB3CDD3-AE5C-4147-8063-039D56388C1D}">
-  <dimension ref="A1:G86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F61CB2-64B3-4DEA-923F-CE31E41FE58A}">
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1279,7 +1297,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
@@ -1310,7 +1328,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1322,58 +1340,58 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1382,18 +1400,18 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1402,18 +1420,18 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1422,38 +1440,38 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" t="s">
         <v>285</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>290</v>
       </c>
-      <c r="E8" t="s">
-        <v>295</v>
-      </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -1465,18 +1483,18 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -1485,38 +1503,38 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" t="s">
         <v>286</v>
       </c>
-      <c r="D11" t="s">
-        <v>291</v>
-      </c>
       <c r="E11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1525,38 +1543,38 @@
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1565,18 +1583,18 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
@@ -1585,38 +1603,38 @@
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D16" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E16" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -1628,18 +1646,18 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -1648,21 +1666,21 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -1671,1458 +1689,1495 @@
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
       <c r="E20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="E21" t="s">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E23" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E24" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D25" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E25" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D26" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E26" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B27" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D27" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E27" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E28" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D31" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E31" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F31" t="s">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E32" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D33" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E33" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F33" t="s">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B36" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D36" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E36" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F36" t="s">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D38" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E38" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B41" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D41" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E41" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B42" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D42" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E42" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F42" t="s">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E43" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B45" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D45" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E45" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" t="s">
-        <v>69</v>
+        <v>303</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>304</v>
       </c>
       <c r="E48" t="s">
-        <v>193</v>
+        <v>305</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D49" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E49" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E50" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B51" t="s">
-        <v>302</v>
+        <v>71</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
       </c>
       <c r="D51" t="s">
-        <v>303</v>
+        <v>73</v>
       </c>
       <c r="E51" t="s">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="F51" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B52" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="D52" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E52" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F52" t="s">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" t="s">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="E53" t="s">
-        <v>196</v>
+        <v>283</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E54" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E55" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F55" t="s">
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E56" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D57" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E57" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B58" t="s">
-        <v>282</v>
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
       </c>
       <c r="D58" t="s">
-        <v>293</v>
+        <v>88</v>
       </c>
       <c r="E58" t="s">
-        <v>289</v>
+        <v>196</v>
       </c>
       <c r="F58" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C59" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="D59" t="s">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="E59" t="s">
-        <v>201</v>
+        <v>284</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="C60" t="s">
+        <v>90</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E60" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D61" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E61" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F61" t="s">
         <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E62" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B63" t="s">
-        <v>267</v>
+        <v>97</v>
+      </c>
+      <c r="C63" t="s">
+        <v>98</v>
       </c>
       <c r="D63" t="s">
-        <v>256</v>
+        <v>99</v>
       </c>
       <c r="E63" t="s">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c r="F63" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" t="s">
-        <v>104</v>
+        <v>263</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="E64" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E65" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F65" t="s">
         <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D66" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E66" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F66" t="s">
         <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F67" t="s">
         <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E68" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F68" t="s">
         <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E69" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F69" t="s">
         <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D70" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E70" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F70" t="s">
         <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C71" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D71" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E71" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F71" t="s">
         <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B72" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D72" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E72" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F72" t="s">
         <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D73" t="s">
-        <v>277</v>
+        <v>126</v>
       </c>
       <c r="E73" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F73" t="s">
         <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D74" t="s">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="E74" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D75" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E75" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F75" t="s">
         <v>11</v>
       </c>
       <c r="G75" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C76" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D76" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E76" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F76" t="s">
         <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B77" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C77" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D77" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E77" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F77" t="s">
         <v>11</v>
       </c>
       <c r="G77" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D78" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E78" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F78" t="s">
         <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C79" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D79" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E79" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F79" t="s">
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C80" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D80" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E80" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F80" t="s">
         <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B81" t="s">
-        <v>283</v>
+        <v>147</v>
+      </c>
+      <c r="C81" t="s">
+        <v>148</v>
       </c>
       <c r="D81" t="s">
-        <v>294</v>
+        <v>149</v>
       </c>
       <c r="E81" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="F81" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B82" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" t="s">
-        <v>154</v>
+        <v>306</v>
       </c>
       <c r="D82" t="s">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c r="E82" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
-      </c>
-      <c r="C83" t="s">
-        <v>157</v>
+        <v>279</v>
       </c>
       <c r="D83" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="E83" t="s">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C84" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D84" t="s">
-        <v>228</v>
+        <v>152</v>
       </c>
       <c r="E84" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F84" t="s">
         <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C85" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D85" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E85" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F85" t="s">
         <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>155</v>
+      </c>
+      <c r="C86" t="s">
+        <v>156</v>
       </c>
       <c r="D86" t="s">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="E86" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F86" t="s">
         <v>11</v>
       </c>
       <c r="G86" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" t="s">
+        <v>158</v>
+      </c>
+      <c r="D87" t="s">
+        <v>225</v>
+      </c>
+      <c r="E87" t="s">
+        <v>221</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" t="s">
+        <v>159</v>
+      </c>
+      <c r="D88" t="s">
+        <v>160</v>
+      </c>
+      <c r="E88" t="s">
+        <v>222</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
